--- a/resources/templates/Plantilla.xlsx
+++ b/resources/templates/Plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Legal\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE8EDC-2909-4DD6-9178-5507C6A0A527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A488F4E7-724F-42F7-A7E7-9386EA674054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,7 +230,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>463826</xdr:colOff>
+      <xdr:colOff>472108</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>120880</xdr:rowOff>
     </xdr:to>
@@ -274,13 +274,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>21983</xdr:colOff>
+      <xdr:colOff>21982</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>513521</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>88657</xdr:rowOff>
     </xdr:to>
@@ -311,8 +311,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21983" y="5563429"/>
-          <a:ext cx="463792" cy="6079467"/>
+          <a:off x="21982" y="5563429"/>
+          <a:ext cx="491539" cy="6079467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -330,7 +330,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>414131</xdr:colOff>
+      <xdr:colOff>422413</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>1218</xdr:rowOff>
     </xdr:to>
@@ -639,14 +639,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
     <col min="4" max="5" width="15.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
@@ -666,7 +666,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11">
         <f ca="1">TODAY()</f>
-        <v>44539</v>
+        <v>44545</v>
       </c>
       <c r="J8" s="11"/>
     </row>

--- a/resources/templates/Plantilla.xlsx
+++ b/resources/templates/Plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Legal\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A488F4E7-724F-42F7-A7E7-9386EA674054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C1F0F7-9F64-49DE-9D60-E3BB47167BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_Hlk63431989" localSheetId="0">Carta!$B$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Carta!$A$1:$K$62</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -224,63 +222,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>21404</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>32107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>472108</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>120880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2980905-BEE0-4D44-969A-6A305F29ACF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21404" y="32107"/>
-          <a:ext cx="8393726" cy="1082686"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>21982</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>513521</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180146</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>88657</xdr:rowOff>
     </xdr:to>
@@ -298,7 +246,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -330,7 +278,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>422413</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>1218</xdr:rowOff>
     </xdr:to>
@@ -348,7 +296,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -361,8 +309,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19706" y="11426041"/>
-          <a:ext cx="8345729" cy="924547"/>
+          <a:off x="19706" y="11491059"/>
+          <a:ext cx="7971769" cy="930759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,16 +587,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="8" width="6.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
@@ -666,7 +614,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11">
         <f ca="1">TODAY()</f>
-        <v>44545</v>
+        <v>44642</v>
       </c>
       <c r="J8" s="11"/>
     </row>
@@ -923,6 +871,10 @@
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="77" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;G</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>